--- a/Bibsam_tidskriftslistor/scifree_data_sage_hybrid.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_sage_hybrid.xlsx
@@ -12366,9 +12366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="D369" sqref="D369"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Bibsam_tidskriftslistor/scifree_data_sage_hybrid.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_sage_hybrid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6422" uniqueCount="4017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6415" uniqueCount="4017">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -12167,8 +12167,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G920" totalsRowShown="0">
-  <autoFilter ref="A1:G920"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G919" totalsRowShown="0">
+  <autoFilter ref="A1:G919"/>
   <sortState ref="A2:G920">
     <sortCondition ref="D1:D920"/>
   </sortState>
@@ -12448,9 +12448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G920"/>
+  <dimension ref="A1:G919"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A894" workbookViewId="0">
+      <selection activeCell="D916" sqref="D916"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33318,19 +33320,19 @@
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>3881</v>
+        <v>279</v>
       </c>
       <c r="B910" t="s">
-        <v>3887</v>
+        <v>3568</v>
       </c>
       <c r="C910" t="s">
-        <v>3888</v>
+        <v>2057</v>
       </c>
       <c r="D910" t="s">
-        <v>3889</v>
+        <v>2058</v>
       </c>
       <c r="E910" t="s">
-        <v>3890</v>
+        <v>2059</v>
       </c>
       <c r="F910" t="s">
         <v>380</v>
@@ -33341,19 +33343,19 @@
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="B911" t="s">
-        <v>3568</v>
+        <v>3526</v>
       </c>
       <c r="C911" t="s">
-        <v>2057</v>
+        <v>1928</v>
       </c>
       <c r="D911" t="s">
-        <v>2058</v>
+        <v>1929</v>
       </c>
       <c r="E911" t="s">
-        <v>2059</v>
+        <v>1930</v>
       </c>
       <c r="F911" t="s">
         <v>380</v>
@@ -33364,19 +33366,19 @@
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="B912" t="s">
-        <v>3526</v>
+        <v>3590</v>
       </c>
       <c r="C912" t="s">
-        <v>1928</v>
+        <v>2125</v>
       </c>
       <c r="D912" t="s">
-        <v>1929</v>
+        <v>2126</v>
       </c>
       <c r="E912" t="s">
-        <v>1930</v>
+        <v>2127</v>
       </c>
       <c r="F912" t="s">
         <v>380</v>
@@ -33387,19 +33389,19 @@
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="B913" t="s">
-        <v>3590</v>
+        <v>3634</v>
       </c>
       <c r="C913" t="s">
-        <v>2125</v>
+        <v>2265</v>
       </c>
       <c r="D913" t="s">
-        <v>2126</v>
+        <v>2266</v>
       </c>
       <c r="E913" t="s">
-        <v>2127</v>
+        <v>2267</v>
       </c>
       <c r="F913" t="s">
         <v>380</v>
@@ -33410,19 +33412,19 @@
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>314</v>
+        <v>3881</v>
       </c>
       <c r="B914" t="s">
-        <v>3634</v>
+        <v>3826</v>
       </c>
       <c r="C914" t="s">
-        <v>2265</v>
+        <v>2844</v>
       </c>
       <c r="D914" t="s">
-        <v>2266</v>
+        <v>2845</v>
       </c>
       <c r="E914" t="s">
-        <v>2267</v>
+        <v>2846</v>
       </c>
       <c r="F914" t="s">
         <v>380</v>
@@ -33433,19 +33435,19 @@
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>3881</v>
+        <v>58</v>
       </c>
       <c r="B915" t="s">
-        <v>3826</v>
+        <v>3102</v>
       </c>
       <c r="C915" t="s">
-        <v>2844</v>
+        <v>668</v>
       </c>
       <c r="D915" t="s">
-        <v>2845</v>
+        <v>669</v>
       </c>
       <c r="E915" t="s">
-        <v>2846</v>
+        <v>670</v>
       </c>
       <c r="F915" t="s">
         <v>380</v>
@@ -33456,19 +33458,19 @@
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>58</v>
+        <v>323</v>
       </c>
       <c r="B916" t="s">
-        <v>3102</v>
+        <v>3656</v>
       </c>
       <c r="C916" t="s">
-        <v>668</v>
+        <v>2331</v>
       </c>
       <c r="D916" t="s">
-        <v>669</v>
+        <v>2332</v>
       </c>
       <c r="E916" t="s">
-        <v>670</v>
+        <v>2333</v>
       </c>
       <c r="F916" t="s">
         <v>380</v>
@@ -33479,19 +33481,19 @@
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>323</v>
+        <v>3881</v>
       </c>
       <c r="B917" t="s">
-        <v>3656</v>
+        <v>3869</v>
       </c>
       <c r="C917" t="s">
-        <v>2331</v>
+        <v>2973</v>
       </c>
       <c r="D917" t="s">
-        <v>2332</v>
+        <v>2974</v>
       </c>
       <c r="E917" t="s">
-        <v>2333</v>
+        <v>2975</v>
       </c>
       <c r="F917" t="s">
         <v>380</v>
@@ -33502,19 +33504,19 @@
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>3881</v>
+        <v>33</v>
       </c>
       <c r="B918" t="s">
-        <v>3869</v>
+        <v>3046</v>
       </c>
       <c r="C918" t="s">
-        <v>2973</v>
+        <v>500</v>
       </c>
       <c r="D918" t="s">
-        <v>2974</v>
+        <v>501</v>
       </c>
       <c r="E918" t="s">
-        <v>2975</v>
+        <v>502</v>
       </c>
       <c r="F918" t="s">
         <v>380</v>
@@ -33525,47 +33527,24 @@
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>33</v>
+        <v>3881</v>
       </c>
       <c r="B919" t="s">
-        <v>3046</v>
+        <v>3725</v>
       </c>
       <c r="C919" t="s">
-        <v>500</v>
+        <v>2541</v>
       </c>
       <c r="D919" t="s">
-        <v>501</v>
+        <v>2542</v>
       </c>
       <c r="E919" t="s">
-        <v>502</v>
+        <v>2543</v>
       </c>
       <c r="F919" t="s">
         <v>380</v>
       </c>
       <c r="G919" t="s">
-        <v>3880</v>
-      </c>
-    </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A920" t="s">
-        <v>3881</v>
-      </c>
-      <c r="B920" t="s">
-        <v>3725</v>
-      </c>
-      <c r="C920" t="s">
-        <v>2541</v>
-      </c>
-      <c r="D920" t="s">
-        <v>2542</v>
-      </c>
-      <c r="E920" t="s">
-        <v>2543</v>
-      </c>
-      <c r="F920" t="s">
-        <v>380</v>
-      </c>
-      <c r="G920" t="s">
         <v>3880</v>
       </c>
     </row>
